--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N2">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q2">
-        <v>0.9977381055573333</v>
+        <v>0.6183632043806667</v>
       </c>
       <c r="R2">
-        <v>8.979642950016</v>
+        <v>5.565268839425999</v>
       </c>
       <c r="S2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="T2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
         <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q3">
-        <v>2.690164045092444</v>
+        <v>2.690164045092445</v>
       </c>
       <c r="R3">
         <v>24.211476405832</v>
       </c>
       <c r="S3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="T3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N4">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q4">
-        <v>1.258621016373333</v>
+        <v>1.357519431269111</v>
       </c>
       <c r="R4">
-        <v>11.32758914736</v>
+        <v>12.217674881422</v>
       </c>
       <c r="S4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="T4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
     </row>
   </sheetData>
